--- a/Final_Data/Supporting_files/Verified_studies/FINAL_Data ownership.xlsx
+++ b/Final_Data/Supporting_files/Verified_studies/FINAL_Data ownership.xlsx
@@ -175,7 +175,7 @@
     <t xml:space="preserve">Pablo Cavigliasso</t>
   </si>
   <si>
-    <t xml:space="preserve">Instituto Nacional de Tecnología Agropecuaria (INTA), Estación Experimental Agropecuaria Concordia. Programa Nacional Apícola (PROAPI)</t>
+    <t xml:space="preserve">Instituto Nacional de Tecnología Agropecuaria (INTA), Estación Experimental Agropecuaria Concordia. Programa Nacional Apicultura (PNAPI), Argentina</t>
   </si>
   <si>
     <t xml:space="preserve">pablo.cavigliaso@gmail.com; cavigliasso.pablo@inta.gob.ar</t>
@@ -2587,8 +2587,8 @@
   </sheetPr>
   <dimension ref="A1:IW1150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A192" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A195" activeCellId="0" sqref="A195"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="A195 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Final_Data/Supporting_files/Verified_studies/FINAL_Data ownership.xlsx
+++ b/Final_Data/Supporting_files/Verified_studies/FINAL_Data ownership.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8240" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8278" uniqueCount="749">
   <si>
     <t xml:space="preserve">study_id</t>
   </si>
@@ -2250,6 +2250,27 @@
   </si>
   <si>
     <t xml:space="preserve">Eeraerts_etal_sweetcherry_Belgium_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos_Zaragoza_Trello_Vicia_faba_Ecuador_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severo-Ochoa Predoctoral Fellowship (SVP-2014-068580),IMPLANTIN (CGL201565346R)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">montse.vila@ebd.csic.es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre Line_Selwyn_Ontario_2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Susan Willis Chan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peponapis@yahoo.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre Line_Selwyn_Ontario_2018</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2408,6 +2429,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2473,7 +2504,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2594,6 +2625,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2672,13 +2715,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IW1133"/>
+  <dimension ref="A1:IW1140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C86" activeCellId="0" sqref="C86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1128" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1137" activeCellId="0" sqref="E1137:E1140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
@@ -30460,6 +30503,134 @@
         <v>262</v>
       </c>
     </row>
+    <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1134" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1134" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1134" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1134" s="0" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1135" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1135" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1135" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1135" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1135" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1135" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1136" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1136" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1136" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1136" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="E1136" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1136" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1137" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1137" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1137" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1137" s="32" t="s">
+        <v>747</v>
+      </c>
+      <c r="E1137" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1138" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1138" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1138" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1138" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1138" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1139" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1139" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1139" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1139" s="32" t="s">
+        <v>747</v>
+      </c>
+      <c r="E1139" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1140" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1140" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1140" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1140" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1140" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="jorge.ortega.marcos@gmail.com"/>
@@ -30533,6 +30704,7 @@
     <hyperlink ref="D1083" r:id="rId69" display="riastewart30@gmail.com "/>
     <hyperlink ref="D1088" r:id="rId70" display="amber.sciligo@gmail.com "/>
     <hyperlink ref="D1110" r:id="rId71" display="fabia714@gmail.com"/>
+    <hyperlink ref="D1135" r:id="rId72" display="nacho.bartomeus@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Final_Data/Supporting_files/Verified_studies/FINAL_Data ownership.xlsx
+++ b/Final_Data/Supporting_files/Verified_studies/FINAL_Data ownership.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8278" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8306" uniqueCount="754">
   <si>
     <t xml:space="preserve">study_id</t>
   </si>
@@ -2225,9 +2225,6 @@
     <t xml:space="preserve">Diego N. Nabaes Jodar</t>
   </si>
   <si>
-    <t xml:space="preserve">Universidad Nacional de Rio Negro, Instituto de Investigaciones en Recursos Naturales, Agroecologia y Desarrollo Rural, Rio Negro, Argentina</t>
-  </si>
-  <si>
     <t xml:space="preserve">dnabaesjodar@unrn.edu.ar</t>
   </si>
   <si>
@@ -2240,9 +2237,6 @@
     <t xml:space="preserve">lgaribaldi@unrn.edu.ar</t>
   </si>
   <si>
-    <t xml:space="preserve">Consejo Nacional de Investigaciones Cientificas y Tecnicas, Instituto de Investigaciones en Recursos Naturales, Agroecologia y Desarrollo Rural, Rio Negro, Argentina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eeraerts_etal_sweetcherry_Belgium_2017</t>
   </si>
   <si>
@@ -2261,7 +2255,7 @@
     <t xml:space="preserve">montse.vila@ebd.csic.es</t>
   </si>
   <si>
-    <t xml:space="preserve">Centre Line_Selwyn_Ontario_2017</t>
+    <t xml:space="preserve">Willis_Chan_Raine_Cucurbita_pepo_Canada_2017</t>
   </si>
   <si>
     <t xml:space="preserve">D. Susan Willis Chan</t>
@@ -2270,7 +2264,40 @@
     <t xml:space="preserve">peponapis@yahoo.com </t>
   </si>
   <si>
-    <t xml:space="preserve">Centre Line_Selwyn_Ontario_2018</t>
+    <t xml:space="preserve">Ontario Ministry of Agriculture, Food and Rural Affairs (OMAFRA) Grant UofG2015-2466;
+Ontario Ministry of Environment and Climate Change (MOECC) Best in Science grant
+BIS201617-06; Natural Sciences and Engineering Research Council (NSERC) Discovery
+Grant 2015-06783; Fresh Vegetable Growers of Ontario (FVGO); Food from Thought: Agricultural Systems for a Healthy Planet Initiative, by the Canada First Research
+Excellent Fund (grant 000054)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willis_Chan_Raine_Cucurbita_pepo_Canada_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leah_Blechschmidt_Malus_domestica_Canada_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leah Blechschmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lnb.schmidt@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontario Ministry of Agriculture, Food and Rural Affairs (OMAFRA) Grant UofG2015-2466; 
+Ontario Ministry of Environment and Climate Change (MOECC) Best in Science grant
+BIS201617-06; Natural Sciences and Engineering Research Council (NSERC) Discovery
+Grant 2015-06783; Food from Thought: Agricultural Systems for a Healthy Planet Initiative, by the Canada First Research
+Excellent Fund (grant 000054); W. Garfield Weston Foundation; Natural Sciences and Engineering Research Council Master's level Canada Graduate Scholarship; Ontario Fruit and Vegetable Conference; Ontario Agricultural College at the University of Guelph; University of Guelph; the Arrell Food Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontario Ministry of Agriculture, Food and Rural Affairs (OMAFRA) Grant UofG2015-2466; 
+Ontario Ministry of Environment and Climate Change (MOECC) Best in Science grant
+BIS201617-06; Natural Sciences and Engineering Research Council (NSERC) Discovery
+Grant 2015-06783; Food from Thought: Agricultural Systems for a Healthy Planet Initiative, by the Canada First Research
+Excellent Fund (grant 000054); W. Garfield Weston Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leah_Blechschmidt_Malus_domestica_Canada_2019</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2301,6 +2328,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2431,13 +2465,17 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2476,7 +2514,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2500,16 +2538,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2517,27 +2559,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2545,27 +2587,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2573,7 +2615,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2581,16 +2623,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2605,11 +2643,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2617,7 +2659,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2625,26 +2667,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="21"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
@@ -2715,18 +2766,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IW1140"/>
+  <dimension ref="A1:IW1144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1128" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1137" activeCellId="0" sqref="E1137:E1140"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1125" activeCellId="0" sqref="F1125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="113.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="54.98"/>
   </cols>
@@ -30323,69 +30375,69 @@
         <v>729</v>
       </c>
     </row>
-    <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1125" customFormat="false" ht="47.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="0" t="s">
         <v>731</v>
       </c>
       <c r="B1125" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="C1125" s="0" t="s">
+      <c r="C1125" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1125" s="0" t="s">
         <v>733</v>
-      </c>
-      <c r="D1125" s="0" t="s">
-        <v>734</v>
       </c>
       <c r="E1125" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F1125" s="0" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1126" customFormat="false" ht="47.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="0" t="s">
         <v>731</v>
       </c>
       <c r="B1126" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="C1126" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="D1126" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="C1126" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="D1126" s="0" t="s">
-        <v>737</v>
-      </c>
       <c r="E1126" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F1126" s="0" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1127" customFormat="false" ht="47.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="0" t="s">
         <v>731</v>
       </c>
       <c r="B1127" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="C1127" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D1127" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="C1127" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="D1127" s="0" t="s">
-        <v>737</v>
-      </c>
       <c r="E1127" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F1127" s="0" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="0" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B1128" s="0" t="s">
         <v>716</v>
@@ -30400,12 +30452,12 @@
         <v>12</v>
       </c>
       <c r="F1128" s="0" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="0" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B1129" s="0" t="s">
         <v>722</v>
@@ -30425,7 +30477,7 @@
     </row>
     <row r="1130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="0" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B1130" s="0" t="s">
         <v>720</v>
@@ -30445,7 +30497,7 @@
     </row>
     <row r="1131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="0" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B1131" s="0" t="s">
         <v>716</v>
@@ -30460,12 +30512,12 @@
         <v>12</v>
       </c>
       <c r="F1131" s="0" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="0" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B1132" s="0" t="s">
         <v>722</v>
@@ -30485,7 +30537,7 @@
     </row>
     <row r="1133" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="0" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B1133" s="0" t="s">
         <v>720</v>
@@ -30505,7 +30557,7 @@
     </row>
     <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="0" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B1134" s="0" t="s">
         <v>134</v>
@@ -30520,12 +30572,12 @@
         <v>12</v>
       </c>
       <c r="F1134" s="0" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="0" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B1135" s="0" t="s">
         <v>132</v>
@@ -30545,7 +30597,7 @@
     </row>
     <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="0" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B1136" s="0" t="s">
         <v>28</v>
@@ -30554,40 +30606,43 @@
         <v>22</v>
       </c>
       <c r="D1136" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="E1136" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1136" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1137" customFormat="false" ht="72.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="30" t="s">
+        <v>743</v>
+      </c>
+      <c r="B1137" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="E1136" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1136" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="1137" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1137" s="30" t="s">
+      <c r="C1137" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1137" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="B1137" s="30" t="s">
+      <c r="E1137" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1137" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C1137" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1137" s="32" t="s">
-        <v>747</v>
-      </c>
-      <c r="E1137" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1138" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="1138" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1138" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="B1138" s="30" t="s">
+        <v>743</v>
+      </c>
+      <c r="B1138" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C1138" s="31" t="s">
+      <c r="C1138" s="9" t="s">
         <v>117</v>
       </c>
       <c r="D1138" s="0" t="s">
@@ -30596,32 +30651,38 @@
       <c r="E1138" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1139" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1138" s="9" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1139" customFormat="false" ht="64.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1139" s="30" t="s">
-        <v>748</v>
-      </c>
-      <c r="B1139" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1139" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C1139" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1139" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="E1139" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1139" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C1139" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1139" s="32" t="s">
+    </row>
+    <row r="1140" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="30" t="s">
         <v>747</v>
       </c>
-      <c r="E1139" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1140" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1140" s="30" t="s">
-        <v>748</v>
-      </c>
-      <c r="B1140" s="30" t="s">
+      <c r="B1140" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C1140" s="31" t="s">
+      <c r="C1140" s="9" t="s">
         <v>117</v>
       </c>
       <c r="D1140" s="0" t="s">
@@ -30629,6 +30690,89 @@
       </c>
       <c r="E1140" s="0" t="s">
         <v>17</v>
+      </c>
+      <c r="F1140" s="9" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1141" customFormat="false" ht="132.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="31" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1141" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1141" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1141" s="32" t="s">
+        <v>750</v>
+      </c>
+      <c r="E1141" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1141" s="33" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1142" customFormat="false" ht="94.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="31" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1142" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1142" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1142" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1142" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1142" s="33" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1143" customFormat="false" ht="83.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="31" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1143" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1143" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1143" s="32" t="s">
+        <v>750</v>
+      </c>
+      <c r="E1143" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1143" s="33" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="92.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="31" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1144" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1144" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1144" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1144" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1144" s="33" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -30705,6 +30849,8 @@
     <hyperlink ref="D1088" r:id="rId70" display="amber.sciligo@gmail.com "/>
     <hyperlink ref="D1110" r:id="rId71" display="fabia714@gmail.com"/>
     <hyperlink ref="D1135" r:id="rId72" display="nacho.bartomeus@gmail.com"/>
+    <hyperlink ref="D1141" r:id="rId73" display="lnb.schmidt@gmail.com"/>
+    <hyperlink ref="D1143" r:id="rId74" display="lnb.schmidt@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Final_Data/Supporting_files/Verified_studies/FINAL_Data ownership.xlsx
+++ b/Final_Data/Supporting_files/Verified_studies/FINAL_Data ownership.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8306" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8324" uniqueCount="755">
   <si>
     <t xml:space="preserve">study_id</t>
   </si>
@@ -2237,13 +2237,16 @@
     <t xml:space="preserve">lgaribaldi@unrn.edu.ar</t>
   </si>
   <si>
+    <t xml:space="preserve">Eeraerts_etal_sweetcherry_Belgium_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Foundation Flanders (FWO) PhD grant 1S71416N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eeraerts_etal_sweetcherry_Belgium_2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eeraerts_etal_sweetcherry_Belgium_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Foundation Flanders (FWO) PhD grant 1S71416N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eeraerts_etal_sweetcherry_Belgium_2019</t>
   </si>
   <si>
     <t xml:space="preserve">Carlos_Zaragoza_Trello_Vicia_faba_Ecuador_2017</t>
@@ -2766,13 +2769,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IW1144"/>
+  <dimension ref="A1:IW1147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1125" activeCellId="0" sqref="F1125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1133" activeCellId="0" sqref="A1133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
@@ -30515,7 +30518,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="1132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1132" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1132" s="0" t="s">
         <v>739</v>
       </c>
@@ -30535,7 +30538,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="1133" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1133" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="0" t="s">
         <v>739</v>
       </c>
@@ -30555,38 +30558,38 @@
         <v>262</v>
       </c>
     </row>
-    <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1134" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1134" s="0" t="s">
         <v>740</v>
       </c>
       <c r="B1134" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1134" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1134" s="12" t="s">
-        <v>135</v>
+        <v>716</v>
+      </c>
+      <c r="C1134" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1134" s="0" t="s">
+        <v>717</v>
       </c>
       <c r="E1134" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F1134" s="0" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="1135" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="0" t="s">
         <v>740</v>
       </c>
       <c r="B1135" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1135" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1135" s="14" t="s">
-        <v>133</v>
+        <v>722</v>
+      </c>
+      <c r="C1135" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1135" s="0" t="s">
+        <v>723</v>
       </c>
       <c r="E1135" s="0" t="s">
         <v>17</v>
@@ -30595,184 +30598,244 @@
         <v>262</v>
       </c>
     </row>
-    <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1136" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="0" t="s">
         <v>740</v>
       </c>
       <c r="B1136" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="C1136" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1136" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="E1136" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1136" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1137" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1137" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1137" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1137" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1137" s="0" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1138" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1138" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1138" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1138" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1138" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1139" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1136" s="4" t="s">
+      <c r="C1139" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1136" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="E1136" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1136" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="1137" customFormat="false" ht="72.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1137" s="30" t="s">
+      <c r="D1139" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="B1137" s="2" t="s">
+      <c r="E1139" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1139" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1140" customFormat="false" ht="72.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="C1137" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1137" s="12" t="s">
+      <c r="B1140" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="E1137" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1137" s="9" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1138" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1138" s="30" t="s">
-        <v>743</v>
-      </c>
-      <c r="B1138" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1138" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1138" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1138" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1138" s="9" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1139" customFormat="false" ht="64.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1139" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="B1139" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="C1139" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1139" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="E1139" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1139" s="9" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1140" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1140" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="B1140" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C1140" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D1140" s="0" t="s">
-        <v>121</v>
+      <c r="D1140" s="12" t="s">
+        <v>746</v>
       </c>
       <c r="E1140" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F1140" s="9" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1141" customFormat="false" ht="132.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1141" s="31" t="s">
-        <v>748</v>
-      </c>
-      <c r="B1141" s="31" t="s">
-        <v>749</v>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1141" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1141" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C1141" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D1141" s="32" t="s">
-        <v>750</v>
-      </c>
-      <c r="E1141" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1141" s="33" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="1142" customFormat="false" ht="94.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1142" s="31" t="s">
+      <c r="D1141" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1141" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1141" s="9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1142" customFormat="false" ht="64.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="30" t="s">
         <v>748</v>
       </c>
       <c r="B1142" s="2" t="s">
-        <v>120</v>
+        <v>745</v>
       </c>
       <c r="C1142" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D1142" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1142" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1142" s="33" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="1143" customFormat="false" ht="83.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1143" s="31" t="s">
-        <v>753</v>
-      </c>
-      <c r="B1143" s="31" t="s">
-        <v>749</v>
+      <c r="D1142" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="E1142" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1142" s="9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1143" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1143" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C1143" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D1143" s="32" t="s">
+      <c r="D1143" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1143" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1143" s="9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="132.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1144" s="31" t="s">
         <v>750</v>
-      </c>
-      <c r="E1143" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1143" s="33" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="1144" customFormat="false" ht="92.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1144" s="31" t="s">
-        <v>753</v>
-      </c>
-      <c r="B1144" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C1144" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D1144" s="34" t="s">
-        <v>121</v>
+      <c r="D1144" s="32" t="s">
+        <v>751</v>
       </c>
       <c r="E1144" s="31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F1144" s="33" t="s">
         <v>752</v>
+      </c>
+    </row>
+    <row r="1145" customFormat="false" ht="94.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1145" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1145" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1145" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1145" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1145" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1145" s="33" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1146" customFormat="false" ht="83.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1146" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1146" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="C1146" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1146" s="32" t="s">
+        <v>751</v>
+      </c>
+      <c r="E1146" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1146" s="33" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1147" customFormat="false" ht="92.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1147" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1147" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1147" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1147" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1147" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1147" s="33" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -30848,9 +30911,9 @@
     <hyperlink ref="D1083" r:id="rId69" display="riastewart30@gmail.com "/>
     <hyperlink ref="D1088" r:id="rId70" display="amber.sciligo@gmail.com "/>
     <hyperlink ref="D1110" r:id="rId71" display="fabia714@gmail.com"/>
-    <hyperlink ref="D1135" r:id="rId72" display="nacho.bartomeus@gmail.com"/>
-    <hyperlink ref="D1141" r:id="rId73" display="lnb.schmidt@gmail.com"/>
-    <hyperlink ref="D1143" r:id="rId74" display="lnb.schmidt@gmail.com"/>
+    <hyperlink ref="D1138" r:id="rId72" display="nacho.bartomeus@gmail.com"/>
+    <hyperlink ref="D1144" r:id="rId73" display="lnb.schmidt@gmail.com"/>
+    <hyperlink ref="D1146" r:id="rId74" display="lnb.schmidt@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Final_Data/Supporting_files/Verified_studies/FINAL_Data ownership.xlsx
+++ b/Final_Data/Supporting_files/Verified_studies/FINAL_Data ownership.xlsx
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">Shelby_Fleischer_Cucurbita_pepo_USA_2014</t>
   </si>
   <si>
-    <t xml:space="preserve">David_Biddinger_Malus_pumila_USA_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David_Biddinger_Malus_pumila_USA_2014</t>
+    <t xml:space="preserve">David_Biddinger_Malus_domestica_USA_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Biddinger_Malus_domestica_USA_2014</t>
   </si>
   <si>
     <t xml:space="preserve">Robert_Gillespie_Prunus_avium_USA_2013</t>
@@ -2312,13 +2312,13 @@
     <t xml:space="preserve">Jamie_Ellis_Citrullus_lanatus_USA_2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Julianna_Wilson_Malus_pumila_USA_2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julianna_Wilson_Malus_pumila_USA_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julianna_Wilson_Malus_pumila_USA_2015</t>
+    <t xml:space="preserve">Julianna_Wilson_Malus_domestica_USA_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julianna_Wilson_Malus_domestica_USA_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julianna_Wilson_Malus_domestica_USA_2015</t>
   </si>
   <si>
     <t xml:space="preserve">Nikki_Rothwell_Prunus_cerasus_USA_2013</t>
@@ -2336,13 +2336,13 @@
     <t xml:space="preserve">Jamie_Ellis_Vaccinium_corymbosum_USA_2014</t>
   </si>
   <si>
-    <t xml:space="preserve">Elizabeth_Elle_Vaccinium_corymbosum_USA_2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizabeth_Elle_Vaccinium_corymbosum_USA_2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizabeth_Elle_Vaccinium_corymbosum_USA_2013</t>
+    <t xml:space="preserve">Elizabeth_Elle_Vaccinium_corymbosum_Canada_2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth_Elle_Vaccinium_corymbosum_Canada_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth_Elle_Vaccinium_corymbosum_Canada_2013</t>
   </si>
   <si>
     <t xml:space="preserve">Jason_Gibbs_Vaccinium_corymbosum_USA_2015</t>
@@ -2361,7 +2361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2526,11 +2526,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -2612,7 +2607,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2733,23 +2728,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2840,17 +2827,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:IW1583"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A347" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A873" activeCellId="0" sqref="A873:A907"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1153" activeCellId="0" sqref="A1153:A1187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
@@ -11206,7 +11193,7 @@
       </c>
     </row>
     <row r="368" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="30" t="s">
+      <c r="A368" s="9" t="s">
         <v>562</v>
       </c>
       <c r="B368" s="16" t="s">
@@ -11232,7 +11219,7 @@
       </c>
     </row>
     <row r="369" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="31" t="s">
+      <c r="A369" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B369" s="16" t="s">
@@ -11258,7 +11245,7 @@
       </c>
     </row>
     <row r="370" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="31" t="s">
+      <c r="A370" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B370" s="16" t="s">
@@ -11284,7 +11271,7 @@
       </c>
     </row>
     <row r="371" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="31" t="s">
+      <c r="A371" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B371" s="16" t="s">
@@ -11310,7 +11297,7 @@
       </c>
     </row>
     <row r="372" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="31" t="s">
+      <c r="A372" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B372" s="16" t="s">
@@ -11336,7 +11323,7 @@
       </c>
     </row>
     <row r="373" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="31" t="s">
+      <c r="A373" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B373" s="16" t="s">
@@ -11362,7 +11349,7 @@
       </c>
     </row>
     <row r="374" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="31" t="s">
+      <c r="A374" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B374" s="16" t="s">
@@ -11388,7 +11375,7 @@
       </c>
     </row>
     <row r="375" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="31" t="s">
+      <c r="A375" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B375" s="16" t="s">
@@ -11414,7 +11401,7 @@
       </c>
     </row>
     <row r="376" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="31" t="s">
+      <c r="A376" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B376" s="16" t="s">
@@ -11440,7 +11427,7 @@
       </c>
     </row>
     <row r="377" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="31" t="s">
+      <c r="A377" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B377" s="16" t="s">
@@ -11466,7 +11453,7 @@
       </c>
     </row>
     <row r="378" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="31" t="s">
+      <c r="A378" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B378" s="16" t="s">
@@ -11492,7 +11479,7 @@
       </c>
     </row>
     <row r="379" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="31" t="s">
+      <c r="A379" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B379" s="16" t="s">
@@ -11518,7 +11505,7 @@
       </c>
     </row>
     <row r="380" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="31" t="s">
+      <c r="A380" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B380" s="16" t="s">
@@ -11544,7 +11531,7 @@
       </c>
     </row>
     <row r="381" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="31" t="s">
+      <c r="A381" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B381" s="16" t="s">
@@ -11570,7 +11557,7 @@
       </c>
     </row>
     <row r="382" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="31" t="s">
+      <c r="A382" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B382" s="16" t="s">
@@ -11596,7 +11583,7 @@
       </c>
     </row>
     <row r="383" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="31" t="s">
+      <c r="A383" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B383" s="16" t="s">
@@ -11622,7 +11609,7 @@
       </c>
     </row>
     <row r="384" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="31" t="s">
+      <c r="A384" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B384" s="16" t="s">
@@ -11648,7 +11635,7 @@
       </c>
     </row>
     <row r="385" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="31" t="s">
+      <c r="A385" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B385" s="16" t="s">
@@ -11674,7 +11661,7 @@
       </c>
     </row>
     <row r="386" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="31" t="s">
+      <c r="A386" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B386" s="16" t="s">
@@ -11700,7 +11687,7 @@
       </c>
     </row>
     <row r="387" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="31" t="s">
+      <c r="A387" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B387" s="16" t="s">
@@ -11726,7 +11713,7 @@
       </c>
     </row>
     <row r="388" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="31" t="s">
+      <c r="A388" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B388" s="16" t="s">
@@ -11752,7 +11739,7 @@
       </c>
     </row>
     <row r="389" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="31" t="s">
+      <c r="A389" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B389" s="16" t="s">
@@ -11778,7 +11765,7 @@
       </c>
     </row>
     <row r="390" s="16" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="31" t="s">
+      <c r="A390" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B390" s="16" t="s">
@@ -11804,7 +11791,7 @@
       </c>
     </row>
     <row r="391" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="31" t="s">
+      <c r="A391" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B391" s="16" t="s">
@@ -11830,7 +11817,7 @@
       </c>
     </row>
     <row r="392" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="31" t="s">
+      <c r="A392" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B392" s="16" t="s">
@@ -11856,7 +11843,7 @@
       </c>
     </row>
     <row r="393" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="31" t="s">
+      <c r="A393" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B393" s="16" t="s">
@@ -11882,7 +11869,7 @@
       </c>
     </row>
     <row r="394" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="31" t="s">
+      <c r="A394" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B394" s="16" t="s">
@@ -11908,7 +11895,7 @@
       </c>
     </row>
     <row r="395" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="31" t="s">
+      <c r="A395" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B395" s="16" t="s">
@@ -11934,7 +11921,7 @@
       </c>
     </row>
     <row r="396" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="31" t="s">
+      <c r="A396" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B396" s="16" t="s">
@@ -11960,7 +11947,7 @@
       </c>
     </row>
     <row r="397" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="31" t="s">
+      <c r="A397" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B397" s="16" t="s">
@@ -11986,7 +11973,7 @@
       </c>
     </row>
     <row r="398" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="31" t="s">
+      <c r="A398" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B398" s="16" t="s">
@@ -12012,7 +11999,7 @@
       </c>
     </row>
     <row r="399" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="31" t="s">
+      <c r="A399" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B399" s="16" t="s">
@@ -12038,7 +12025,7 @@
       </c>
     </row>
     <row r="400" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="31" t="s">
+      <c r="A400" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B400" s="16" t="s">
@@ -12064,7 +12051,7 @@
       </c>
     </row>
     <row r="401" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="31" t="s">
+      <c r="A401" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B401" s="16" t="s">
@@ -12090,7 +12077,7 @@
       </c>
     </row>
     <row r="402" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="31" t="s">
+      <c r="A402" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B402" s="16" t="s">
@@ -12116,7 +12103,7 @@
       </c>
     </row>
     <row r="403" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="31" t="s">
+      <c r="A403" s="16" t="s">
         <v>562</v>
       </c>
       <c r="B403" s="16" t="s">
@@ -20566,7 +20553,7 @@
       </c>
     </row>
     <row r="728" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="32" t="s">
+      <c r="A728" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B728" s="16" t="s">
@@ -20592,7 +20579,7 @@
       </c>
     </row>
     <row r="729" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="32" t="s">
+      <c r="A729" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B729" s="16" t="s">
@@ -20618,7 +20605,7 @@
       </c>
     </row>
     <row r="730" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="32" t="s">
+      <c r="A730" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B730" s="16" t="s">
@@ -20644,7 +20631,7 @@
       </c>
     </row>
     <row r="731" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="32" t="s">
+      <c r="A731" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B731" s="16" t="s">
@@ -20670,7 +20657,7 @@
       </c>
     </row>
     <row r="732" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="32" t="s">
+      <c r="A732" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B732" s="16" t="s">
@@ -20696,7 +20683,7 @@
       </c>
     </row>
     <row r="733" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="32" t="s">
+      <c r="A733" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B733" s="16" t="s">
@@ -20722,7 +20709,7 @@
       </c>
     </row>
     <row r="734" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="32" t="s">
+      <c r="A734" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B734" s="16" t="s">
@@ -20748,7 +20735,7 @@
       </c>
     </row>
     <row r="735" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="32" t="s">
+      <c r="A735" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B735" s="16" t="s">
@@ -20774,7 +20761,7 @@
       </c>
     </row>
     <row r="736" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="32" t="s">
+      <c r="A736" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B736" s="16" t="s">
@@ -20800,7 +20787,7 @@
       </c>
     </row>
     <row r="737" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="32" t="s">
+      <c r="A737" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B737" s="16" t="s">
@@ -20826,7 +20813,7 @@
       </c>
     </row>
     <row r="738" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="32" t="s">
+      <c r="A738" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B738" s="16" t="s">
@@ -20852,7 +20839,7 @@
       </c>
     </row>
     <row r="739" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="32" t="s">
+      <c r="A739" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B739" s="16" t="s">
@@ -20878,7 +20865,7 @@
       </c>
     </row>
     <row r="740" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="32" t="s">
+      <c r="A740" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B740" s="16" t="s">
@@ -20904,7 +20891,7 @@
       </c>
     </row>
     <row r="741" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="32" t="s">
+      <c r="A741" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B741" s="16" t="s">
@@ -20930,7 +20917,7 @@
       </c>
     </row>
     <row r="742" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="32" t="s">
+      <c r="A742" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B742" s="16" t="s">
@@ -20956,7 +20943,7 @@
       </c>
     </row>
     <row r="743" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="32" t="s">
+      <c r="A743" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B743" s="16" t="s">
@@ -20982,7 +20969,7 @@
       </c>
     </row>
     <row r="744" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="32" t="s">
+      <c r="A744" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B744" s="16" t="s">
@@ -21008,7 +20995,7 @@
       </c>
     </row>
     <row r="745" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="32" t="s">
+      <c r="A745" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B745" s="16" t="s">
@@ -21034,7 +21021,7 @@
       </c>
     </row>
     <row r="746" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="32" t="s">
+      <c r="A746" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B746" s="16" t="s">
@@ -21060,7 +21047,7 @@
       </c>
     </row>
     <row r="747" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="32" t="s">
+      <c r="A747" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B747" s="16" t="s">
@@ -21086,7 +21073,7 @@
       </c>
     </row>
     <row r="748" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="32" t="s">
+      <c r="A748" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B748" s="16" t="s">
@@ -21112,7 +21099,7 @@
       </c>
     </row>
     <row r="749" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="32" t="s">
+      <c r="A749" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B749" s="16" t="s">
@@ -21138,7 +21125,7 @@
       </c>
     </row>
     <row r="750" s="28" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="32" t="s">
+      <c r="A750" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B750" s="16" t="s">
@@ -21164,7 +21151,7 @@
       </c>
     </row>
     <row r="751" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="32" t="s">
+      <c r="A751" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B751" s="16" t="s">
@@ -21190,7 +21177,7 @@
       </c>
     </row>
     <row r="752" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="32" t="s">
+      <c r="A752" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B752" s="16" t="s">
@@ -21216,7 +21203,7 @@
       </c>
     </row>
     <row r="753" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="32" t="s">
+      <c r="A753" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B753" s="16" t="s">
@@ -21242,7 +21229,7 @@
       </c>
     </row>
     <row r="754" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="32" t="s">
+      <c r="A754" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B754" s="16" t="s">
@@ -21268,7 +21255,7 @@
       </c>
     </row>
     <row r="755" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="32" t="s">
+      <c r="A755" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B755" s="16" t="s">
@@ -21294,7 +21281,7 @@
       </c>
     </row>
     <row r="756" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="32" t="s">
+      <c r="A756" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B756" s="16" t="s">
@@ -21320,7 +21307,7 @@
       </c>
     </row>
     <row r="757" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="32" t="s">
+      <c r="A757" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B757" s="16" t="s">
@@ -21346,7 +21333,7 @@
       </c>
     </row>
     <row r="758" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="32" t="s">
+      <c r="A758" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B758" s="16" t="s">
@@ -21372,7 +21359,7 @@
       </c>
     </row>
     <row r="759" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="32" t="s">
+      <c r="A759" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B759" s="16" t="s">
@@ -21398,7 +21385,7 @@
       </c>
     </row>
     <row r="760" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="32" t="s">
+      <c r="A760" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B760" s="16" t="s">
@@ -21424,7 +21411,7 @@
       </c>
     </row>
     <row r="761" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="32" t="s">
+      <c r="A761" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B761" s="16" t="s">
@@ -21450,7 +21437,7 @@
       </c>
     </row>
     <row r="762" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="32" t="s">
+      <c r="A762" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B762" s="16" t="s">
@@ -21476,7 +21463,7 @@
       </c>
     </row>
     <row r="763" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="32" t="s">
+      <c r="A763" s="30" t="s">
         <v>619</v>
       </c>
       <c r="B763" s="16" t="s">
@@ -25992,10 +25979,10 @@
       <c r="B945" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="C945" s="32" t="s">
+      <c r="C945" s="30" t="s">
         <v>683</v>
       </c>
-      <c r="D945" s="32" t="s">
+      <c r="D945" s="30" t="s">
         <v>684</v>
       </c>
       <c r="E945" s="16" t="s">
@@ -27082,7 +27069,7 @@
       </c>
     </row>
     <row r="1000" customFormat="false" ht="72.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="33" t="s">
+      <c r="A1000" s="31" t="s">
         <v>745</v>
       </c>
       <c r="B1000" s="2" t="s">
@@ -27102,7 +27089,7 @@
       </c>
     </row>
     <row r="1001" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="33" t="s">
+      <c r="A1001" s="31" t="s">
         <v>745</v>
       </c>
       <c r="B1001" s="2" t="s">
@@ -27122,7 +27109,7 @@
       </c>
     </row>
     <row r="1002" customFormat="false" ht="64.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="33" t="s">
+      <c r="A1002" s="31" t="s">
         <v>749</v>
       </c>
       <c r="B1002" s="2" t="s">
@@ -27142,7 +27129,7 @@
       </c>
     </row>
     <row r="1003" customFormat="false" ht="76.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="33" t="s">
+      <c r="A1003" s="31" t="s">
         <v>749</v>
       </c>
       <c r="B1003" s="2" t="s">
@@ -27162,27 +27149,27 @@
       </c>
     </row>
     <row r="1004" customFormat="false" ht="132.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="34" t="s">
+      <c r="A1004" s="32" t="s">
         <v>750</v>
       </c>
-      <c r="B1004" s="34" t="s">
+      <c r="B1004" s="32" t="s">
         <v>751</v>
       </c>
       <c r="C1004" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D1004" s="35" t="s">
+      <c r="D1004" s="33" t="s">
         <v>752</v>
       </c>
-      <c r="E1004" s="34" t="s">
+      <c r="E1004" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F1004" s="36" t="s">
+      <c r="F1004" s="34" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="94.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="34" t="s">
+      <c r="A1005" s="32" t="s">
         <v>750</v>
       </c>
       <c r="B1005" s="2" t="s">
@@ -27191,38 +27178,38 @@
       <c r="C1005" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D1005" s="37" t="s">
+      <c r="D1005" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="E1005" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1005" s="36" t="s">
+      <c r="E1005" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1005" s="34" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="83.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="34" t="s">
+      <c r="A1006" s="32" t="s">
         <v>755</v>
       </c>
-      <c r="B1006" s="34" t="s">
+      <c r="B1006" s="32" t="s">
         <v>751</v>
       </c>
       <c r="C1006" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D1006" s="35" t="s">
+      <c r="D1006" s="33" t="s">
         <v>752</v>
       </c>
-      <c r="E1006" s="34" t="s">
+      <c r="E1006" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F1006" s="36" t="s">
+      <c r="F1006" s="34" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="92.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="34" t="s">
+      <c r="A1007" s="32" t="s">
         <v>755</v>
       </c>
       <c r="B1007" s="2" t="s">
@@ -27231,13 +27218,13 @@
       <c r="C1007" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D1007" s="37" t="s">
+      <c r="D1007" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="E1007" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1007" s="36" t="s">
+      <c r="E1007" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1007" s="34" t="s">
         <v>754</v>
       </c>
     </row>
@@ -41282,7 +41269,7 @@
       </c>
     </row>
     <row r="1548" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1548" s="32" t="s">
+      <c r="A1548" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1548" s="16" t="s">
@@ -41308,7 +41295,7 @@
       </c>
     </row>
     <row r="1549" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1549" s="32" t="s">
+      <c r="A1549" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1549" s="16" t="s">
@@ -41334,7 +41321,7 @@
       </c>
     </row>
     <row r="1550" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1550" s="32" t="s">
+      <c r="A1550" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1550" s="16" t="s">
@@ -41360,7 +41347,7 @@
       </c>
     </row>
     <row r="1551" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1551" s="32" t="s">
+      <c r="A1551" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1551" s="16" t="s">
@@ -41386,7 +41373,7 @@
       </c>
     </row>
     <row r="1552" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1552" s="32" t="s">
+      <c r="A1552" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1552" s="16" t="s">
@@ -41412,7 +41399,7 @@
       </c>
     </row>
     <row r="1553" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1553" s="32" t="s">
+      <c r="A1553" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1553" s="16" t="s">
@@ -41438,7 +41425,7 @@
       </c>
     </row>
     <row r="1554" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1554" s="32" t="s">
+      <c r="A1554" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1554" s="16" t="s">
@@ -41464,7 +41451,7 @@
       </c>
     </row>
     <row r="1555" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1555" s="32" t="s">
+      <c r="A1555" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1555" s="16" t="s">
@@ -41490,7 +41477,7 @@
       </c>
     </row>
     <row r="1556" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1556" s="32" t="s">
+      <c r="A1556" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1556" s="16" t="s">
@@ -41516,7 +41503,7 @@
       </c>
     </row>
     <row r="1557" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1557" s="32" t="s">
+      <c r="A1557" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1557" s="16" t="s">
@@ -41542,7 +41529,7 @@
       </c>
     </row>
     <row r="1558" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1558" s="32" t="s">
+      <c r="A1558" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1558" s="16" t="s">
@@ -41568,7 +41555,7 @@
       </c>
     </row>
     <row r="1559" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1559" s="32" t="s">
+      <c r="A1559" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1559" s="16" t="s">
@@ -41594,7 +41581,7 @@
       </c>
     </row>
     <row r="1560" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1560" s="32" t="s">
+      <c r="A1560" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1560" s="16" t="s">
@@ -41620,7 +41607,7 @@
       </c>
     </row>
     <row r="1561" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1561" s="32" t="s">
+      <c r="A1561" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1561" s="16" t="s">
@@ -41646,7 +41633,7 @@
       </c>
     </row>
     <row r="1562" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1562" s="32" t="s">
+      <c r="A1562" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1562" s="16" t="s">
@@ -41672,7 +41659,7 @@
       </c>
     </row>
     <row r="1563" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1563" s="32" t="s">
+      <c r="A1563" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1563" s="16" t="s">
@@ -41698,7 +41685,7 @@
       </c>
     </row>
     <row r="1564" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1564" s="32" t="s">
+      <c r="A1564" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1564" s="16" t="s">
@@ -41724,7 +41711,7 @@
       </c>
     </row>
     <row r="1565" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1565" s="32" t="s">
+      <c r="A1565" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1565" s="16" t="s">
@@ -41750,7 +41737,7 @@
       </c>
     </row>
     <row r="1566" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1566" s="32" t="s">
+      <c r="A1566" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1566" s="16" t="s">
@@ -41776,7 +41763,7 @@
       </c>
     </row>
     <row r="1567" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1567" s="32" t="s">
+      <c r="A1567" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1567" s="16" t="s">
@@ -41802,7 +41789,7 @@
       </c>
     </row>
     <row r="1568" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1568" s="32" t="s">
+      <c r="A1568" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1568" s="16" t="s">
@@ -41828,7 +41815,7 @@
       </c>
     </row>
     <row r="1569" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1569" s="32" t="s">
+      <c r="A1569" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1569" s="16" t="s">
@@ -41854,7 +41841,7 @@
       </c>
     </row>
     <row r="1570" s="28" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1570" s="32" t="s">
+      <c r="A1570" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1570" s="16" t="s">
@@ -41880,7 +41867,7 @@
       </c>
     </row>
     <row r="1571" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1571" s="32" t="s">
+      <c r="A1571" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1571" s="16" t="s">
@@ -41906,7 +41893,7 @@
       </c>
     </row>
     <row r="1572" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1572" s="32" t="s">
+      <c r="A1572" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1572" s="16" t="s">
@@ -41932,7 +41919,7 @@
       </c>
     </row>
     <row r="1573" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1573" s="32" t="s">
+      <c r="A1573" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1573" s="16" t="s">
@@ -41958,7 +41945,7 @@
       </c>
     </row>
     <row r="1574" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1574" s="32" t="s">
+      <c r="A1574" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1574" s="16" t="s">
@@ -41984,7 +41971,7 @@
       </c>
     </row>
     <row r="1575" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1575" s="32" t="s">
+      <c r="A1575" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1575" s="16" t="s">
@@ -42010,7 +41997,7 @@
       </c>
     </row>
     <row r="1576" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1576" s="32" t="s">
+      <c r="A1576" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1576" s="16" t="s">
@@ -42036,7 +42023,7 @@
       </c>
     </row>
     <row r="1577" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1577" s="32" t="s">
+      <c r="A1577" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1577" s="16" t="s">
@@ -42062,7 +42049,7 @@
       </c>
     </row>
     <row r="1578" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1578" s="32" t="s">
+      <c r="A1578" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1578" s="16" t="s">
@@ -42088,7 +42075,7 @@
       </c>
     </row>
     <row r="1579" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1579" s="32" t="s">
+      <c r="A1579" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1579" s="16" t="s">
@@ -42114,7 +42101,7 @@
       </c>
     </row>
     <row r="1580" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1580" s="32" t="s">
+      <c r="A1580" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1580" s="16" t="s">
@@ -42140,7 +42127,7 @@
       </c>
     </row>
     <row r="1581" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1581" s="32" t="s">
+      <c r="A1581" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1581" s="16" t="s">
@@ -42166,7 +42153,7 @@
       </c>
     </row>
     <row r="1582" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1582" s="32" t="s">
+      <c r="A1582" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1582" s="16" t="s">
@@ -42192,7 +42179,7 @@
       </c>
     </row>
     <row r="1583" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1583" s="32" t="s">
+      <c r="A1583" s="30" t="s">
         <v>771</v>
       </c>
       <c r="B1583" s="16" t="s">
@@ -42297,7 +42284,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
